--- a/Projeto/Geração das Amostras/excel/parte_2_planilha_3.xlsx
+++ b/Projeto/Geração das Amostras/excel/parte_2_planilha_3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="32">
   <si>
     <t>exam_id</t>
   </si>
@@ -988,8 +988,12 @@
       <c r="A49" s="2">
         <v>1490465.0</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="B49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2">
